--- a/Teams/Newcastle Utd_stats.xlsx
+++ b/Teams/Newcastle Utd_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-268</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-297</t>
+          <t>17-298</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>38-147</t>
+          <t>38-148</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-328</t>
+          <t>30-329</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13174,7 +13174,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14602,7 +14602,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18260,7 +18260,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18422,7 +18422,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18584,7 +18584,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18665,7 +18665,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19070,7 +19070,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19475,7 +19475,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19961,7 +19961,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -20557,7 +20557,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21205,7 +21205,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -21525,7 +21525,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -21687,7 +21687,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22092,7 +22092,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22173,7 +22173,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22254,7 +22254,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23206,7 +23206,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23602,7 +23602,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -23701,7 +23701,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23796,7 +23796,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24188,7 +24188,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -24580,7 +24580,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -24679,7 +24679,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -24778,7 +24778,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -24877,7 +24877,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-124</t>
+          <t>27-125</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25637,7 +25637,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-315</t>
+          <t>32-316</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25754,7 +25754,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-024</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-180</t>
+          <t>25-181</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25988,7 +25988,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20-193</t>
+          <t>20-194</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -26105,7 +26105,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-090</t>
+          <t>33-091</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -26339,7 +26339,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-128</t>
+          <t>22-129</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30-024</t>
+          <t>30-025</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -26573,7 +26573,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24-316</t>
+          <t>24-317</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-335</t>
+          <t>32-336</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26807,7 +26807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>36-064</t>
+          <t>36-065</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-212</t>
+          <t>25-213</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-141</t>
+          <t>27-142</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -27158,7 +27158,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-101</t>
+          <t>27-102</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-182</t>
+          <t>34-183</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26-165</t>
+          <t>26-166</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -27626,7 +27626,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-230</t>
+          <t>30-231</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-324</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33-021</t>
+          <t>33-022</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -27977,7 +27977,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -28094,7 +28094,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-229</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29-183</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-268</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-297</t>
+          <t>17-298</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -28454,7 +28454,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>38-147</t>
+          <t>38-148</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-328</t>
+          <t>30-329</t>
         </is>
       </c>
       <c r="F31" t="n">

--- a/Teams/Newcastle Utd_stats.xlsx
+++ b/Teams/Newcastle Utd_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6067,7 +6067,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-272</t>
+          <t>20-275</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-301</t>
+          <t>17-304</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>38-151</t>
+          <t>38-154</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-332</t>
+          <t>30-335</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9259,7 +9259,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11325,7 +11325,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12715,7 +12715,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13897,7 +13897,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14556,7 +14556,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14828,7 +14828,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15840,7 +15840,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16359,7 +16359,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16714,7 +16714,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16927,7 +16927,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17069,7 +17069,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17282,7 +17282,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17842,7 +17842,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18077,7 +18077,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18148,7 +18148,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18219,7 +18219,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18432,7 +18432,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18925,7 +18925,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19493,7 +19493,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19706,7 +19706,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19840,7 +19840,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20114,7 +20114,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20203,7 +20203,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20648,7 +20648,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20915,7 +20915,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21089,7 +21089,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -21441,7 +21441,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21882,7 +21882,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21971,7 +21971,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22315,7 +22315,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-128</t>
+          <t>27-131</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-319</t>
+          <t>32-322</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22862,7 +22862,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-028</t>
+          <t>24-031</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-184</t>
+          <t>25-187</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-200</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23290,7 +23290,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-094</t>
+          <t>33-097</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-132</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -23504,7 +23504,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30-028</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24-320</t>
+          <t>24-323</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23718,7 +23718,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-339</t>
+          <t>32-342</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23825,7 +23825,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36-068</t>
+          <t>36-071</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-216</t>
+          <t>25-219</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24039,7 +24039,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-145</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24146,7 +24146,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-105</t>
+          <t>27-108</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24253,7 +24253,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-186</t>
+          <t>34-189</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-172</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24574,7 +24574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-234</t>
+          <t>30-237</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18-327</t>
+          <t>18-330</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -24788,7 +24788,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-028</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25002,7 +25002,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-232</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29-187</t>
+          <t>29-190</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -25216,7 +25216,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-272</t>
+          <t>20-275</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-301</t>
+          <t>17-304</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -25322,7 +25322,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>38-151</t>
+          <t>38-154</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -25375,7 +25375,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-332</t>
+          <t>30-335</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -25527,7 +25527,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E33" t="n">
